--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -10,35 +10,32 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>March 18, 2020</t>
-  </si>
-  <si>
-    <t>Alexa Salvanera</t>
-  </si>
-  <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
-  </si>
-  <si>
-    <t>2nd Floor Cyberzone Area, SM Calamba City Laguna</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Alexa Salvanera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the to be used in support to operation in monitoring Locally-Funded Projects of Regional and Provincial PDMU Personnel for the LGMED with the Purchase Order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">equivalent to (Php 102465) is hereby accepted. </t>
+    <t>March 24, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleopatra T. Ferrer </t>
+  </si>
+  <si>
+    <t>Marinold Grill Co.</t>
+  </si>
+  <si>
+    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Mr./Ms. Cleopatra T. Ferrer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the asd for the ORD with the Purchase Order equivalent to (Php 1)is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing both copies. Keep one copy </t>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>By        :           __________________________</t>
-  </si>
-  <si>
-    <t>16/35 MM Production Supply</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -133,13 +127,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -156,19 +156,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,113 +498,119 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="true" style="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="true" style="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="1:9" customHeight="1" ht="13.9">
+      <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="13" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" customHeight="1" ht="13.9">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="25" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A25" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A34" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="C37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +618,7 @@
   <mergeCells>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A22:I23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -15,30 +15,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>NOTICE OF AWARD</t>
-  </si>
-  <si>
-    <t>March 24, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleopatra T. Ferrer </t>
-  </si>
-  <si>
-    <t>Marinold Grill Co.</t>
-  </si>
-  <si>
-    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Mr./Ms. Cleopatra T. Ferrer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the asd for the ORD with the Purchase Order equivalent to (Php 1)is hereby accepted. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing both copies. Keep one copy </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
+  </si>
+  <si>
+    <t>May 18, 2020</t>
+  </si>
+  <si>
+    <t>Melcheshoe Trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melcheshoe Trading
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
+</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Melcheshoe Trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement ofPersonal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service) for FAD with the Purchase Order equivalent to Php 55,920.00 is hereby accepted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. Keep one copy </t>
   </si>
   <si>
     <t>and return the other to the General Services and Supply Section, DILG IV-A.   </t>
@@ -50,13 +52,17 @@
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
-    <t>Assistant Regional Director</t>
+    <t>Officer-in-Charger</t>
   </si>
   <si>
     <t>CONFORME:</t>
   </si>
   <si>
     <t>By        :           __________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Melcheshoe Trading
+</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -127,16 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -149,11 +152,17 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -172,11 +181,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6019800" cy="1381125"/>
+    <xdr:ext cx="6086475" cy="1381125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1" descr=""/>
@@ -495,75 +504,75 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="true" style="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="85.77734375" customWidth="true" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
-    <row r="10" spans="1:9" customHeight="1" ht="13.9">
-      <c r="D10" s="7" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="13" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A13" s="2" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="25" spans="1:9" customHeight="1" ht="13.9">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -573,18 +582,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" customHeight="1" ht="13.9">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -592,34 +601,30 @@
       <c r="C37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="4" t="s">
-        <v>14</v>
+      <c r="A44" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A22:I23"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>May 14, 2020</t>
   </si>
   <si>
     <t>Melcheshoe Trading</t>
@@ -37,13 +37,10 @@
     <t>Dear Mr./Ms. Melcheshoe Trading</t>
   </si>
   <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement ofPersonal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service) for FAD with the Purchase Order equivalent to Php 55,920.00 is hereby accepted. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. Keep one copy </t>
-  </si>
-  <si>
-    <t>and return the other to the General Services and Supply Section, DILG IV-A.   </t>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of To Support the monitoring updates and providing technical support and assistance to the Region due to Taal Volcano eruption   with the Purchase Order equivalent to Php 37,190.48 is hereby accepted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
   </si>
   <si>
     <t>Very truly yours,</t>
@@ -52,7 +49,7 @@
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
-    <t>Officer-in-Charger</t>
+    <t>Officer-in-Charge</t>
   </si>
   <si>
     <t>CONFORME:</t>
@@ -501,7 +498,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A15" sqref="A15"/>
@@ -572,55 +569,50 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="C37"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="3" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="6" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -20,24 +20,23 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>May 14, 2020</t>
+    <t>May 21, 2020</t>
+  </si>
+  <si>
+    <t>Ma. Kristine P. Ladao</t>
   </si>
   <si>
     <t>Melcheshoe Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melcheshoe Trading
-</t>
   </si>
   <si>
     <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
 </t>
   </si>
   <si>
-    <t>Dear Mr./Ms. Melcheshoe Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of To Support the monitoring updates and providing technical support and assistance to the Region due to Taal Volcano eruption   with the Purchase Order equivalent to Php 37,190.48 is hereby accepted. </t>
+    <t>Dear Mr./Ms. Ma. Kristine P. Ladao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of To Support the Monitoring updates and Providing Technical Support and Assistance to the Region due to Taal Volcanic Eruption            with Purchase Order equivalent to Php 107,930.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -58,8 +57,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                   Melcheshoe Trading
-</t>
+    <t xml:space="preserve">                   Melcheshoe Trading</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -549,14 +547,6 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7"/>

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -20,23 +20,22 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>May 21, 2020</t>
-  </si>
-  <si>
-    <t>Ma. Kristine P. Ladao</t>
-  </si>
-  <si>
-    <t>Melcheshoe Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
-</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Ma. Kristine P. Ladao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of To Support the Monitoring updates and Providing Technical Support and Assistance to the Region due to Taal Volcanic Eruption            with Purchase Order equivalent to Php 107,930.00 is hereby accepted. </t>
+    <t>June 03, 2020</t>
+  </si>
+  <si>
+    <t>Catherine Javier</t>
+  </si>
+  <si>
+    <t>Twis Catering Services</t>
+  </si>
+  <si>
+    <t>257 Barangay Sala City of Cabuyao Laguna</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Catherine Javier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Catering Services for the RTF-ELCAC Full Council Meeting with Purchase Order equivalent to Php 8,820.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -45,10 +44,10 @@
     <t>Very truly yours,</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
-    <t>Officer-in-Charge</t>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
   <si>
     <t>CONFORME:</t>
@@ -57,7 +56,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                   Melcheshoe Trading</t>
+    <t xml:space="preserve">                   Twis Catering Services</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -502,10 +501,10 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="85.77734375" customWidth="true" style="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="true" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -20,22 +20,24 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>June 03, 2020</t>
-  </si>
-  <si>
-    <t>Catherine Javier</t>
-  </si>
-  <si>
-    <t>Twis Catering Services</t>
-  </si>
-  <si>
-    <t>257 Barangay Sala City of Cabuyao Laguna</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Catherine Javier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Catering Services for the RTF-ELCAC Full Council Meeting with Purchase Order equivalent to Php 8,820.00 is hereby accepted. </t>
+    <t>June 24, 2020</t>
+  </si>
+  <si>
+    <t>7-08 Auto Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-08 Auto Shop
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 Nueva Vizcaya St. Bago Bantay, Quezon City
+</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. 7-08 Auto Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Repair and Maintenance for the For the payment of fuel and lubricants for the month of April 2020 with Purchase Order equivalent to Php 580.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -56,7 +58,8 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                   Twis Catering Services</t>
+    <t xml:space="preserve">                   7-08 Auto Shop
+</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -20,24 +20,38 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>June 24, 2020</t>
-  </si>
-  <si>
-    <t>7-08 Auto Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-08 Auto Shop
+    <t>July 02, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innove Communications, Inc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innove Communications, Inc. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">57 Nueva Vizcaya St. Bago Bantay, Quezon City
+    <t xml:space="preserve">III Valero Telepark, Valero St., Salcedo Village, Marikina City
 </t>
   </si>
   <si>
-    <t>Dear Mr./Ms. 7-08 Auto Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Repair and Maintenance for the For the payment of fuel and lubricants for the month of April 2020 with Purchase Order equivalent to Php 580.00 is hereby accepted. </t>
+    <r>
+      <t xml:space="preserve">Dear Sir/Madam: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">16/35 MM Production Supply:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Supplies, Materials and Devices for the For the conduct of online audio-video conferencing activities of Regional, Provincial and HUC Offices with Purchase Order equivalent to Php 114,854.14 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -46,7 +60,7 @@
     <t>Very truly yours,</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
+    <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -58,8 +72,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                   7-08 Auto Shop
-</t>
+    <t xml:space="preserve">                                  Innove Communications, Inc. </t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -20,38 +20,22 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>July 02, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innove Communications, Inc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innove Communications, Inc. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III Valero Telepark, Valero St., Salcedo Village, Marikina City
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear Sir/Madam: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">16/35 MM Production Supply:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Supplies, Materials and Devices for the For the conduct of online audio-video conferencing activities of Regional, Provincial and HUC Offices with Purchase Order equivalent to Php 114,854.14 is hereby accepted. </t>
+    <t>January 23, 2020</t>
+  </si>
+  <si>
+    <t>Rowena Balahadia</t>
+  </si>
+  <si>
+    <t>Apolega Tire and Service Center</t>
+  </si>
+  <si>
+    <t>Parian, Calamba City</t>
+  </si>
+  <si>
+    <t>Dear Apolega Tire and Service Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Repair and Maintenance for the For the use Isuzu D"Max CP 2057   with Purchase Order equivalent to Php 32,800.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -72,7 +56,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                  Innove Communications, Inc. </t>
+    <t xml:space="preserve">                                  Rowena Balahadia</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
